--- a/reports/tables/tab3_phase_1_descriptive.xlsx
+++ b/reports/tables/tab3_phase_1_descriptive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnobalam/Documents/Dissertation/irs-pricing-python/results/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnobalam/Documents/Dissertation/irs-pricing-python/reports/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4ECF9E-235A-044D-B3E4-08ABE8FC7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4521246-98C2-AF42-BAE1-14526F322727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Currency</t>
   </si>
@@ -41,18 +41,6 @@
     <t>Floating Leg</t>
   </si>
   <si>
-    <t>Cleared Count</t>
-  </si>
-  <si>
-    <t>Cleared</t>
-  </si>
-  <si>
-    <t>Uncleared Count</t>
-  </si>
-  <si>
-    <t>Uncleared</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -99,13 +87,28 @@
   </si>
   <si>
     <t>Percent Cleared</t>
+  </si>
+  <si>
+    <t>Cleared (Count)</t>
+  </si>
+  <si>
+    <t>Cleared (Notional Value)</t>
+  </si>
+  <si>
+    <t>Uncleared (Count)</t>
+  </si>
+  <si>
+    <t>Uncleared (Notional Value)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,10 +120,12 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -183,24 +188,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,10 +519,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -522,7 +533,7 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="17">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -530,275 +541,255 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
+      <c r="C2" s="9">
+        <v>3518</v>
+      </c>
+      <c r="D2" s="8">
+        <v>203345.9</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3071</v>
       </c>
       <c r="F2" s="2">
-        <v>100</v>
+        <v>131242.008</v>
       </c>
       <c r="G2" s="3">
         <f>D2/(D2+F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+        <v>0.60775029562634397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2183</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/(D3+F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="G4" s="3">
+        <f>D4/(D4+F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
-        <v>200</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G14" si="0">D3/(D3+F3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3518</v>
-      </c>
-      <c r="D4" s="2">
-        <v>203345.9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3071</v>
-      </c>
-      <c r="F4" s="2">
-        <v>131242.008</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.60775029562634397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <f>D5/(D5+F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+        <f>D6/(D6+F6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>31</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+        <f>D7/(D7+F7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="G8" s="3">
+        <f>D8/(D8+F8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/(D9+F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/(D10+F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11:G14" si="0">D11/(D11+F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2183</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="2">
@@ -809,20 +800,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9">
         <v>225</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="8">
         <v>18811.400000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>308</v>
       </c>
       <c r="F13" s="2">
@@ -833,20 +824,18 @@
         <v>0.48019502482482229</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
         <v>3</v>
       </c>
       <c r="F14" s="2">
